--- a/Calls/September_2025.xlsx
+++ b/Calls/September_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_pw\crownjewel_site\Calls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE982AAD-85C6-4F0D-81DD-E41862F24268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EFB80F-A4D0-4874-BCAF-FC3FB26E52F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC197E5D-F9F9-4FE2-A19C-7FBBF7A96E8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{CC197E5D-F9F9-4FE2-A19C-7FBBF7A96E8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruby" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>Name client</t>
   </si>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA042BC-5BBA-4CCC-96BE-3CC05065038F}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,24 +473,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B0921F-9B63-4197-93FF-980542649C65}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E12322-240F-43D9-97FF-CEBA862B3E6C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>